--- a/input_file.xlsx
+++ b/input_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\SYSCOM_5Gproject_WeekendData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D697B4-1D0C-48DB-84FE-FC4F6A3BD8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE095B1B-8F16-4EE9-947D-9C47903B6A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Content</t>
   </si>
   <si>
-    <t>北拍(內車道)</t>
-  </si>
-  <si>
     <t>南拍</t>
   </si>
   <si>
@@ -106,6 +103,10 @@
   </si>
   <si>
     <t>XXXK內車道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北拍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +230,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -538,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -604,30 +605,30 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -670,7 +671,7 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -702,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -710,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -718,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -726,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -734,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
